--- a/data/fitts.xlsx
+++ b/data/fitts.xlsx
@@ -5,15 +5,16 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiros-h/Documents/【連載】デジタルアドバンテージ/第14回/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiros-h/Documents/GitHub/math/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1034AC85-5D48-3147-8B5E-90D09707FB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32101479-4191-2E48-927B-54D7DA30DE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3620" yWindow="1500" windowWidth="25640" windowHeight="25360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="実験データ" sheetId="1" r:id="rId1"/>
+    <sheet name="散布図" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -221,7 +222,7 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -230,7 +231,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -239,10 +240,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -262,6 +263,1244 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>実験データ!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>移動時間(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>実験データ!$A$4:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>実験データ!$B$4:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1342</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-818E-8A43-9871-20B3E1C16550}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1935603343"/>
+        <c:axId val="1934280383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1935603343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1934280383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1934280383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1935603343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{167A5F92-95EE-8842-B9AE-8CD47AE1DF5D}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="171" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9305906" cy="6067778"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3122EAB2-403A-623B-F3A3-29F5326096C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
